--- a/biology/Zoologie/Jeholornis/Jeholornis.xlsx
+++ b/biology/Zoologie/Jeholornis/Jeholornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeholornis, anciennement Shenzhouraptor, est un genre éteint de dinosaures à plumes (Avialae) du biote de Jehol, daté du Crétacé inférieur (Aptien inférieur). Il a été trouvé en Chine, dans les formations géologiques d'Yixian et de Jiufotang dans la province de Hebei.
 </t>
@@ -511,7 +523,9 @@
           <t>Spécimens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe deux spécimens :
 IVPP V13350 ;
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeholornis mesure 70 cm de long. Il disposait d'une queue comme celle des Dromaeosauridae de plus de vingt os coccygiens. Comme les Troodontidae et ces derniers, il possède un second doigt très développé. En outre les plumes de la queue ressemblent plus à celle des Dromaeosauridae qu'à celle des Avialae. Le synsacrum, constitué de six vertèbres, semble être un stade intermédiaire entre les Dromaeosauridae et Archeopteryx et les oiseaux plus modernes. La structure squelettique est plus adaptée au vol que celle de Archéoptéryx et rappelle davantage Confuciusornis. L'oiseau possède d'ailleurs de larges et robustes ailes. Jeholornis possédait des dents dégénérées mais des maxillaires puissantes.
 </t>
@@ -574,7 +590,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On sait que cet animal était essentiellement granivore puisque l'on a trouvé son dernier repas à l'intérieur de son estomac. Comme ces graines sont bien conservées, on peut supposer que Jeholornis disposait d'un jabot.
 </t>
@@ -605,7 +623,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fossile de Jeholornis a été découvert par un paysan. Son premier nom, Shenzhouraptor sinensis, signifie : "le pillard chinois de Shenzhou". Le second nom, Jeholornis prima, qui prévaut aujourd'hui, signifie : "premier oiseau de Jehol".
 </t>
@@ -636,9 +656,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une analyse phylogénétique conduite par X. Wang et al. en 2016 donne le cladogramme suivant pour le clade des  Avialae avec la position de Jeholornis en groupe frère de Rahonavis[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une analyse phylogénétique conduite par X. Wang et al. en 2016 donne le cladogramme suivant pour le clade des  Avialae avec la position de Jeholornis en groupe frère de Rahonavis :
 </t>
         </is>
       </c>
